--- a/Data/SART/Proefpersonen_Link_ID_Meting.xlsx
+++ b/Data/SART/Proefpersonen_Link_ID_Meting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="4740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
   <si>
     <t>Proefpersoon nummer</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Problems with the EEG signal at A23 and A32 (1e EEG); 2e EEG: Channel a11 gaf heel veel ruis en channel a23 minder, maar ook wel ruis in het eeg signaal.</t>
   </si>
   <si>
-    <t>Waar komen ID nummers tweede meetperiode vandaan? Heeft maar 1x meegedaan</t>
-  </si>
-  <si>
     <t>md-4df0ecc0bc8c01394d7b0242ac120003</t>
   </si>
   <si>
@@ -385,6 +382,24 @@
   </si>
   <si>
     <t xml:space="preserve">s298_g1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no info </t>
+  </si>
+  <si>
+    <t>no info</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropout </t>
+  </si>
+  <si>
+    <t>s305_g1</t>
+  </si>
+  <si>
+    <t>s306_g1</t>
   </si>
 </sst>
 </file>
@@ -705,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +740,7 @@
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -779,9 +794,8 @@
       <c r="D2">
         <v>3710623278</v>
       </c>
-      <c r="E2" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+      <c r="E2" t="s">
+        <v>116</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -789,8 +803,14 @@
       <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>143752740</v>
+      </c>
+      <c r="M2">
+        <v>1023148736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -803,20 +823,19 @@
       <c r="D3">
         <v>1127780461</v>
       </c>
-      <c r="E3" t="e">
-        <f t="shared" ref="E3:E5" si="0" xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
       </c>
       <c r="D4">
         <v>3996423296</v>
@@ -837,7 +856,7 @@
         <v>193411700</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -850,9 +869,8 @@
       <c r="D5">
         <v>1602472500</v>
       </c>
-      <c r="E5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="E5" t="s">
+        <v>115</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -863,8 +881,14 @@
       <c r="J5">
         <v>3601632</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>2258829879</v>
+      </c>
+      <c r="M5">
+        <v>577165397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -887,7 +911,7 @@
         <v>1324565197</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -915,8 +939,11 @@
       <c r="I7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -938,8 +965,14 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3352102540</v>
+      </c>
+      <c r="M8">
+        <v>572223753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -962,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -984,8 +1017,11 @@
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>326522640</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1042,8 +1078,14 @@
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>2031479607</v>
+      </c>
+      <c r="M12">
+        <v>568666544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1065,8 +1107,11 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1088,8 +1133,14 @@
       <c r="G14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1192898655</v>
+      </c>
+      <c r="M14">
+        <v>405912854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1106,16 +1157,13 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M15">
         <v>2145708670</v>
       </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1130,6 +1178,9 @@
       </c>
       <c r="G16">
         <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1137,10 +1188,10 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
       </c>
       <c r="D17">
         <v>512147558</v>
@@ -1155,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>91</v>
       </c>
       <c r="L17">
         <v>1338618297</v>
@@ -1222,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" t="s">
-        <v>96</v>
       </c>
       <c r="L19">
         <v>1152703929</v>
@@ -1245,7 +1296,7 @@
         <v>148649783</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M20">
         <v>148649783</v>
@@ -1293,16 +1344,19 @@
       <c r="G22">
         <v>4</v>
       </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
       </c>
       <c r="D23">
         <v>1565057618</v>
@@ -1323,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
         <v>86</v>
-      </c>
-      <c r="K23" t="s">
-        <v>87</v>
       </c>
       <c r="L23">
         <v>1565057618</v>
@@ -1349,10 +1403,16 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
         <v>101</v>
       </c>
-      <c r="K24" t="s">
-        <v>102</v>
+      <c r="L24">
+        <v>1657172152</v>
+      </c>
+      <c r="M24">
+        <v>220076414</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1377,10 +1437,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
       </c>
       <c r="D26">
         <v>2138193976</v>
@@ -1397,10 +1457,10 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
       </c>
       <c r="D27">
         <v>711253099</v>
@@ -1420,13 +1480,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
       </c>
       <c r="D28">
         <v>3246246073</v>
@@ -1441,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M28">
         <v>268330526</v>
@@ -1449,13 +1509,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
       </c>
       <c r="D29">
         <v>1111579977</v>
@@ -1469,13 +1529,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
       </c>
       <c r="D30">
         <v>3667116265</v>
@@ -1486,10 +1546,13 @@
       <c r="F30">
         <v>1</v>
       </c>
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>2107136123</v>
@@ -1512,7 +1575,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1">
         <v>1416701860</v>
@@ -1523,10 +1586,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <v>1237564183</v>
@@ -1552,7 +1615,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>2296936255</v>
@@ -1578,7 +1641,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35">
         <v>3404252106</v>
@@ -1603,6 +1666,58 @@
       </c>
       <c r="M35">
         <v>3404252106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36">
+        <v>3175975216</v>
+      </c>
+      <c r="E36">
+        <v>1140348507</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3175975216</v>
+      </c>
+      <c r="M36">
+        <v>1140348507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>31385275</v>
+      </c>
+      <c r="E37">
+        <v>2085617431</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>31385275</v>
+      </c>
+      <c r="M37">
+        <v>2085617431</v>
       </c>
     </row>
   </sheetData>
